--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_6.xlsx
@@ -26320,28 +26320,28 @@
         <v>32252.22165943391</v>
       </c>
       <c r="E2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="F2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="G2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="H2" t="n">
         <v>32252.22165943391</v>
       </c>
       <c r="I2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="J2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="K2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="L2" t="n">
         <v>32252.22165943391</v>
-      </c>
-      <c r="J2" t="n">
-        <v>32252.22165943391</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32252.22165943391</v>
-      </c>
-      <c r="L2" t="n">
-        <v>32252.22165943392</v>
       </c>
       <c r="M2" t="n">
         <v>32252.22165943391</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="C4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="D4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="E4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="F4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="G4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="H4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="I4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="J4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="K4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="L4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="M4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="N4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="O4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="P4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
     </row>
     <row r="5">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3475.13235485215</v>
+        <v>-3475.132354852147</v>
       </c>
       <c r="C6" t="n">
-        <v>-3475.13235485215</v>
+        <v>-3475.132354852147</v>
       </c>
       <c r="D6" t="n">
-        <v>-3475.13235485215</v>
+        <v>-3475.132354852147</v>
       </c>
       <c r="E6" t="n">
         <v>30152.46764514785</v>
       </c>
       <c r="F6" t="n">
-        <v>30152.46764514786</v>
+        <v>30152.46764514785</v>
       </c>
       <c r="G6" t="n">
         <v>30152.46764514785</v>
       </c>
       <c r="H6" t="n">
-        <v>30152.46764514785</v>
+        <v>30152.46764514784</v>
       </c>
       <c r="I6" t="n">
         <v>30152.46764514785</v>
@@ -26546,22 +26546,22 @@
         <v>30152.46764514785</v>
       </c>
       <c r="K6" t="n">
+        <v>30152.46764514785</v>
+      </c>
+      <c r="L6" t="n">
         <v>30152.46764514784</v>
       </c>
-      <c r="L6" t="n">
-        <v>30152.46764514786</v>
-      </c>
       <c r="M6" t="n">
-        <v>30152.46764514784</v>
+        <v>30152.46764514785</v>
       </c>
       <c r="N6" t="n">
         <v>30152.46764514785</v>
       </c>
       <c r="O6" t="n">
-        <v>30152.46764514784</v>
+        <v>30152.46764514785</v>
       </c>
       <c r="P6" t="n">
-        <v>30152.46764514785</v>
+        <v>30152.46764514786</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_6.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160286.7224292003</v>
+        <v>177854.7080031853</v>
       </c>
     </row>
     <row r="7">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="C2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="D2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="E2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="F2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="G2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="H2" t="n">
         <v>32252.22165943391</v>
@@ -26335,25 +26335,25 @@
         <v>32252.22165943392</v>
       </c>
       <c r="J2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="K2" t="n">
         <v>32252.22165943392</v>
       </c>
       <c r="L2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="M2" t="n">
         <v>32252.22165943391</v>
       </c>
       <c r="N2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="O2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="P2" t="n">
         <v>32252.22165943391</v>
-      </c>
-      <c r="O2" t="n">
-        <v>32252.22165943391</v>
-      </c>
-      <c r="P2" t="n">
-        <v>32252.22165943392</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3475.132354852147</v>
+        <v>-1375.37834056608</v>
       </c>
       <c r="C6" t="n">
-        <v>-3475.132354852147</v>
+        <v>-1375.378340566083</v>
       </c>
       <c r="D6" t="n">
-        <v>-3475.132354852147</v>
+        <v>-1375.37834056608</v>
       </c>
       <c r="E6" t="n">
-        <v>30152.46764514785</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="F6" t="n">
-        <v>30152.46764514785</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="G6" t="n">
-        <v>30152.46764514785</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="H6" t="n">
-        <v>30152.46764514784</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="I6" t="n">
-        <v>30152.46764514785</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="J6" t="n">
-        <v>30152.46764514785</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="K6" t="n">
-        <v>30152.46764514785</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="L6" t="n">
-        <v>30152.46764514784</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="M6" t="n">
-        <v>30152.46764514785</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="N6" t="n">
-        <v>30152.46764514785</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="O6" t="n">
-        <v>30152.46764514785</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="P6" t="n">
-        <v>30152.46764514786</v>
+        <v>32252.22165943391</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_6.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26323,10 +26325,10 @@
         <v>32252.22165943392</v>
       </c>
       <c r="F2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="G2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="H2" t="n">
         <v>32252.22165943391</v>
@@ -26335,7 +26337,7 @@
         <v>32252.22165943392</v>
       </c>
       <c r="J2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="K2" t="n">
         <v>32252.22165943392</v>
@@ -26344,7 +26346,7 @@
         <v>32252.22165943392</v>
       </c>
       <c r="M2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="N2" t="n">
         <v>32252.22165943392</v>
@@ -26522,19 +26524,19 @@
         <v>-1375.37834056608</v>
       </c>
       <c r="C6" t="n">
+        <v>-1375.37834056608</v>
+      </c>
+      <c r="D6" t="n">
         <v>-1375.378340566083</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-1375.37834056608</v>
       </c>
       <c r="E6" t="n">
         <v>32252.22165943392</v>
       </c>
       <c r="F6" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="G6" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="H6" t="n">
         <v>32252.22165943391</v>
@@ -26543,7 +26545,7 @@
         <v>32252.22165943392</v>
       </c>
       <c r="J6" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="K6" t="n">
         <v>32252.22165943392</v>
@@ -26552,7 +26554,7 @@
         <v>32252.22165943392</v>
       </c>
       <c r="M6" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="N6" t="n">
         <v>32252.22165943392</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177854.7080031853</v>
+        <v>51093.75413392025</v>
       </c>
     </row>
     <row r="7">
@@ -26325,16 +26325,16 @@
         <v>32252.22165943392</v>
       </c>
       <c r="F2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="H2" t="n">
+        <v>32252.22165943392</v>
+      </c>
+      <c r="I2" t="n">
         <v>32252.22165943391</v>
-      </c>
-      <c r="G2" t="n">
-        <v>32252.22165943391</v>
-      </c>
-      <c r="H2" t="n">
-        <v>32252.22165943391</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32252.22165943392</v>
       </c>
       <c r="J2" t="n">
         <v>32252.22165943392</v>
@@ -26355,7 +26355,7 @@
         <v>32252.22165943392</v>
       </c>
       <c r="P2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.37834056608</v>
+        <v>-16526.05231060084</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.37834056608</v>
+        <v>-16526.05231060084</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.378340566083</v>
+        <v>-16526.05231060085</v>
       </c>
       <c r="E6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="F6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="G6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="H6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="I6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="J6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="K6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="L6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="M6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939916</v>
       </c>
       <c r="N6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="O6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="P6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51093.75413392025</v>
+        <v>165178.6126162587</v>
       </c>
     </row>
     <row r="7">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="C2" t="n">
         <v>32252.22165943392</v>
       </c>
       <c r="D2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="E2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="F2" t="n">
         <v>32252.22165943392</v>
@@ -26331,22 +26331,22 @@
         <v>32252.22165943392</v>
       </c>
       <c r="H2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="I2" t="n">
         <v>32252.22165943391</v>
       </c>
       <c r="J2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="K2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="L2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="M2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="N2" t="n">
         <v>32252.22165943392</v>
@@ -26355,7 +26355,7 @@
         <v>32252.22165943392</v>
       </c>
       <c r="P2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16526.05231060084</v>
+        <v>-2890.445737569563</v>
       </c>
       <c r="C6" t="n">
-        <v>-16526.05231060084</v>
+        <v>-2890.44573756956</v>
       </c>
       <c r="D6" t="n">
-        <v>-16526.05231060085</v>
+        <v>-2890.445737569567</v>
       </c>
       <c r="E6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="F6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="G6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="H6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="I6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="J6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="K6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="L6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="M6" t="n">
-        <v>17101.54768939916</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="N6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="O6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="P6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
     </row>
   </sheetData>
